--- a/LSL/AIM/Gap Regsiter_Sathosa_v2.1.xlsx
+++ b/LSL/AIM/Gap Regsiter_Sathosa_v2.1.xlsx
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="189">
   <si>
     <t>GAP REGISTER</t>
   </si>
@@ -1213,6 +1213,29 @@
   </si>
   <si>
     <t>Functional-GRN receipts and payable invoice numbers are systematically sequenced</t>
+  </si>
+  <si>
+    <t>Sathosa\KPMG Technical</t>
+  </si>
+  <si>
+    <t>printer architecture - Setup Instructions for Printing from Oracle Cloud (Doc ID 1964157.1)</t>
+  </si>
+  <si>
+    <t>lpstat -d
+lpadmin -d Epson-Dot-Matrix -d Epson-Dot-Matrix
+IX_PRINTING="/testfs/TEST/fs1/EBSapps/appl/fnd/12.0.0/resource/ixlib.cfg"
+--related /etc/cups/cupsd.conf
+--adding the printer server
+/usr/sbin/lpadmin -p LaserJet(virtual printer server/EBS defined printer) -E -v socket://cupsserevr.cupsexample.com -m laserjet.ppd
+--adding the printer clients
+/usr/sbin/lpadmin -p LaserJet1,2,...(Windows Client PC based IP printers) -E -v socket://192.168.16.1...xxxx -m laserjet.ppd
+--body starts of /etc/cups/client.conf
+ServerName cupsserevr.cupsexample.com
+--body ends
+--get printers installed in CUPS
+lpinfo -m
+--get the default printer name from windows PC
+smbclient '\\LKKTS_L046\Users\sjayasinghe1\Downloads\' -c 'lcd /tmp; cd test_folder; get default_printer.txt' -U sjayasitbne1%1qaz67</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1781,12 +1804,113 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="121">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2812,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2949,7 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.140625" customWidth="1"/>
   </cols>
@@ -4791,7 +4915,7 @@
       <c r="L55" s="46"/>
       <c r="M55" s="46"/>
     </row>
-    <row r="56" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="62">
         <v>50</v>
       </c>
@@ -4827,6 +4951,43 @@
       </c>
       <c r="L56" s="46"/>
       <c r="M56" s="46"/>
+    </row>
+    <row r="57" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="62">
+        <v>51</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="32">
+        <v>43496</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H57" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="32">
+        <v>43496</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:M56">
@@ -4845,421 +5006,448 @@
     <mergeCell ref="D4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="F1 E6:F10 E14:F18 F11 E19">
-    <cfRule type="cellIs" dxfId="106" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="127" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="128" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="129" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1 J6:J10 J14:J17">
-    <cfRule type="cellIs" dxfId="103" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="130" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="102" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="124" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="125" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="126" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="99" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="123" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="98" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="122" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="97" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="121" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="96" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="120" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="95" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="117" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="118" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="119" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="92" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="116" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="91" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="113" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="114" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="115" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="88" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="110" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="112" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="85" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="109" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="84" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="106" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="107" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="108" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="81" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="103" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="104" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="105" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="78" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="102" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="77" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="101" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="76" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="98" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="99" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="100" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="73" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="97" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="72" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="91" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="92" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="93" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="69" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="90" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="68" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="88" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="89" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="65" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="84" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="85" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="86" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="62" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="83" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="61" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="79" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="58" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="57" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="72" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="62" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="59" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26 E28:E39">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F39">
-    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J39">
-    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E42">
-    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F42">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:J42">
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E49">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F49">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43:J49">
-    <cfRule type="cellIs" dxfId="17" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:E54">
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F54">
-    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:J54">
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:J56">
-    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E56">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:F56">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5267,10 +5455,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E18 E22 E20 E27">
       <formula1>"Open,Work In Progress,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F57">
       <formula1>"Critical,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J57">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
